--- a/3Casos.xlsx
+++ b/3Casos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usmcl-my.sharepoint.com/personal/diego_llanoso_sansano_usm_cl/Documents/Universidad/Memoria/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_042531A0D300D823CFDA3311595ED87656CC78FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDA37C4D-A0B0-4846-B635-6AAD52ECFD75}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_042531A0D300D823CFDA3311595ED87656CC78FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A26A4613-1D3E-404A-BB54-3CDE7966206C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
